--- a/biology/Médecine/Liste_des_maladies_constitutionnelles_de_l'os/Liste_des_maladies_constitutionnelles_de_l'os.xlsx
+++ b/biology/Médecine/Liste_des_maladies_constitutionnelles_de_l'os/Liste_des_maladies_constitutionnelles_de_l'os.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_constitutionnelles_de_l%27os</t>
+          <t>Liste_des_maladies_constitutionnelles_de_l'os</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page regroupe l'ensemble des maladies constitutionnelles de l'os. Les maladies constitutionnelles de l'os sont les maladies osseuses présentes dès le début de la vie embryonnaire. Elles sont donc toutes en rapport avec des anomalies du fonctionnement des gènes impliqués dans la formation de l'os, que ce soit dans des composants spécifiques de l'os ou dans des composants communs à d'autres tissus de l'organisme.
 Les maladies constitutionnelles de l'os se divisent en ostéochondrodysplasies et en dysostoses.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_constitutionnelles_de_l%27os</t>
+          <t>Liste_des_maladies_constitutionnelles_de_l'os</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Affections génétiques des os : remarques d'ordre pratique préalables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nombre d’affections dites génétiques comportent une atteinte des os et du squelette.
 Ce nombre va croissant et les distinctions entre dysplasies, maladies métaboliques de l'os, dysostose et syndrome malformatif s’estompent.
 Dans un but de classification, les critères pathogéniques et moléculaires s’intègrent aux critères morphologiques, mais ces affections sont encore reconnues et décrites grâce aux signes cliniques et aux aspects radiologiques.
 Les preuves moléculaires, non seulement conduisent à confirmer les entités individuelles et à la constitution de nouveaux regroupements, mais aussi ces preuves moléculaires permettent de décrire des entités proches mais distinctes et révèlent une hétérogénéité des mécanismes moléculaires à ce jour inattendue.
 Ainsi, les preuves moléculaires ne simplifient pas nécessairement le travail nosologique et n'accroissent pas seulement le nombre des entités. Il faut en attendre une complexité croissante.
-De fait, c’est bien la mise à jour et la revue des entités classiques[1] associant atteinte du squelette et anomalies génétiques sous la forme d’une nosologie renouvelée[2] qui peut contribuer à une assistance diagnostique pratique et favoriser la description de nouvelles entités.
+De fait, c’est bien la mise à jour et la revue des entités classiques associant atteinte du squelette et anomalies génétiques sous la forme d’une nosologie renouvelée qui peut contribuer à une assistance diagnostique pratique et favoriser la description de nouvelles entités.
 Cette nosologie mise à jour stimule, enfin, tout en la canalisant, la recherche en biologie du squelette et en affections génétiques.
 </t>
         </is>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_constitutionnelles_de_l%27os</t>
+          <t>Liste_des_maladies_constitutionnelles_de_l'os</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Ostéochondrodysplasies létales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les ostéochondrodysplasies létales sont :
 achondrogenèse ;
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_constitutionnelles_de_l%27os</t>
+          <t>Liste_des_maladies_constitutionnelles_de_l'os</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,8 +612,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Examen échographique
-Toutes les ostéochondrodysplasies ne sont pas dépistables par l'échographie de dépistage de deuxième trimestre. Car toutes ne se manifestent pas au cours de la vie fœtale. Seule une soixantaine ont des traductions échographiques précoces.
+          <t>Examen échographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Toutes les ostéochondrodysplasies ne sont pas dépistables par l'échographie de dépistage de deuxième trimestre. Car toutes ne se manifestent pas au cours de la vie fœtale. Seule une soixantaine ont des traductions échographiques précoces.
 Il est souhaitable que les couples ayant la notion de maladie grave ou handicapante dans leur famille, bénéficient d'une consultation de génétique afin de connaître le risque de transmettre cette maladie et des possibilités de diagnostic par recherche de l'anomalie génétique par prélèvement de trophoblaste, amniocentèse ou ponction de sang fœtal.
 Voici une liste d'études à effectuer chez un fœtus suspect d'être atteint d'une ostéochondrodysplasie :
 mesurer tous les os longs ;
@@ -643,7 +664,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_constitutionnelles_de_l%27os</t>
+          <t>Liste_des_maladies_constitutionnelles_de_l'os</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,8 +684,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Organisation de l'information
-La nomenclature utilisée est celle de 2001, la dernière en date. Cette liste est sous forme de tableaux. Chaque tableau définit un sous-groupe de maladies constitutionnelles.
+          <t>Organisation de l'information</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La nomenclature utilisée est celle de 2001, la dernière en date. Cette liste est sous forme de tableaux. Chaque tableau définit un sous-groupe de maladies constitutionnelles.
 Organisation de l'information :
 nom de la pathologie ;
 mode de transmission :
@@ -675,9 +701,43 @@
 référence O.M.I.M ;
 numéro du chromosome impliqué et locus du gène impliqué ;
 nom du gène impliqué ;
-nom de la protéine déficitaire codée par le gène.
-Ostéochondrodysplasies
-Les ostéochondrodysplasies constituent un groupe varié d’affections dans lesquelles la structure de l’os est par essence anormale, avec pour effet immédiat une perturbation de la croissance des sujets atteints.
+nom de la protéine déficitaire codée par le gène.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_maladies_constitutionnelles_de_l'os</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_maladies_constitutionnelles_de_l%27os</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des maladies</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ostéochondrodysplasies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ostéochondrodysplasies constituent un groupe varié d’affections dans lesquelles la structure de l’os est par essence anormale, avec pour effet immédiat une perturbation de la croissance des sujets atteints.
 Tronc et membres sont de dimensions anormales avec volontiers petite taille disproportionnée, définie comme une taille au-dessous du troisième percentile pour l’âge chronologique du sujet.
 Certaines de ces dysplasies sont transmises génétiquement, d’autres surviennent de manière sporadique.
 Le diagnostic de ces dysplasies osseuses peut être porté dans la majorité des cas par la clinique.
@@ -690,76 +750,7 @@
 En outre, l’identification d’une dysplasie précise peut conduire au diagnostic et donc au traitement de problèmes médicaux associés.
 À titre d’exemple, les sujets atteints de syndrome ongle-rotule sont menacés d’insuffisance rénale, à début volontiers insidieux et volontiers méconnu en l’absence du dépistage adéquat mis en œuvre en raison de l’association connue avec le syndrome (Guidera KJ, Satterwhite Y, Ogden JA et al., 1991).
 La collaboration avec le généticien aide au diagnostic dans les cas difficiles.
-Achondroplasies
-Spondylodysplasie sévère
-Dysplasies métatropiques
-Syndromes côtes courtes (avec ou sans polydactylie)
-Atelosteogenesis-Omodysplasie
-Dysplasies diastrophiques
-Dysplasies dyssegmentaires
-Collagénopathies type II
-Collagénopathies type XI
-Autres dysplasies spondyloépiphysaires
-Dysplasies épiphysaires multiples &amp; Pseudochondroplasies
-Chondrodysplasies ponctuées
-Dysplasies métaphysaires
-Dysplasies spondylométaphysaires
-Brachyolmia spondylodysplasias
-Dysplasies mésoméliques
-Dysplasies acroméliques
-Dysplasies acromésoméliques
-Dysplasies avec predominant membranous bone involvement
-Dysplasies avec os courbes
-Dysplasies avec dislocations osseuses
-Groupes des dysostoses multiples
-Ostéochondrodysplasies avec hypotrophie et os graciles
-Ostéochondrodysplasies avec diminution de la densité osseuse
-Dysplasies par défaut de minéralisation
-Dysplasies avec augmentation de la densité osseuse sans modification de la forme de l'os
-Dysplasies avec augmentation de la densité osseuse avec participation diaphysaire
-Dysplasies avec augmentation de la densité osseuse avec participation métaphysaire
-Dysplasies cranio-digitale
-Dysplasies ostéosclérotique néo natale sévère
-Dysplasies par désorganisation cartilagineuse et conjonctive du squelette
-Ostéolyses
-Pieds et mains
-Phalanges distales
-Métaphysaires et épiphysaires
-Dysplasies patellaires
-Dysostoses
-Anomalies prédominantes du crâne et de la face
-Anomalies prédominantes de l'axe squelettique
-Anomalies prédominantes des extrémités</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_maladies_constitutionnelles_de_l%27os</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_maladies_constitutionnelles_de_l%27os</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Autres maladies non ordonnées</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>hémimélie (en): malformation génétique où le péroné est manquant[3],[4].</t>
+</t>
         </is>
       </c>
     </row>
@@ -769,7 +760,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_constitutionnelles_de_l%27os</t>
+          <t>Liste_des_maladies_constitutionnelles_de_l'os</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -784,10 +775,44 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Autres maladies non ordonnées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>hémimélie (en): malformation génétique où le péroné est manquant,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_maladies_constitutionnelles_de_l'os</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_maladies_constitutionnelles_de_l%27os</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">International Nosology and Classification of Constitutional Disorders of Bone (2001) American Journal of Medical Genetics 113:65–77 (2002)
 ↑ (Rimoin DL, Cohn D, Krakow D, Wilcox W, Lachman RS and Alanay Y., Nov 2007)
